--- a/data/output/Analisis/Analisis_Categorias_C_y_D_21022026.xlsx
+++ b/data/output/Analisis/Analisis_Categorias_C_y_D_21022026.xlsx
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -11596,7 +11596,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 21/02/2026 16:39</t>
+          <t>Fecha de generación: 21/02/2026 17:20</t>
         </is>
       </c>
     </row>
